--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1541893.064374089</v>
+        <v>1539347.878300803</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>8.892594560364216</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>119.7641616298976</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5103304121437</v>
+        <v>39.25266187003844</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>326.2396125556947</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>296.6787025175304</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.790440613649634</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.32905684098938</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1230146347445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.17550840396293</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>126.4267013134148</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>30.85302310518039</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>34.00490843294678</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>37.17792077063368</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="U22" t="n">
-        <v>35.88641949135544</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>88.27810958517581</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>108.0660982346998</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520957</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>158.2472899190577</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>79.70119244397701</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>156.5238857907025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.2271298596247</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>130.2301075198431</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2521.146500912455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.384715550547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.321828206976</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.553172936862</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1210.087414675782</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1210.087414675782</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>688.4798308023552</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1954.241103772296</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1227.012888225134</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>841.2246356268899</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>834.2791348776865</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4607,10 +4607,10 @@
         <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>115.8915240839901</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>115.8915240839901</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1955.425461779395</v>
+        <v>1465.114432469609</v>
       </c>
       <c r="O9" t="n">
-        <v>2504.861470532118</v>
+        <v>2014.550441222332</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
@@ -5191,58 +5191,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5270,10 +5270,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5303,16 +5303,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5367,7 +5367,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,10 +5592,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>776.1751066403293</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1650.832398530834</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1361.415228493873</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.425677595856</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5935,10 +5935,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U22" t="n">
         <v>2191.112710026075</v>
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>265.073174061852</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856852</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>808.8888553856852</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>658.7722159733495</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.537320215925</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,16 +6540,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>335.7491137930459</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1089.57599612053</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C37" t="n">
-        <v>920.6398131926233</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D37" t="n">
-        <v>770.5231737802875</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E37" t="n">
-        <v>622.6100801978944</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>475.720132699984</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1720.006590992317</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1492.0170400943</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y37" t="n">
-        <v>1271.22446095077</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,13 +7260,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7497,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>230.7984289569018</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>285.1863782336312</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>99.28295407562238</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>194.8566322838568</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>214.9597225531943</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24175,13 +24175,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="U22" t="n">
-        <v>250.2980548978887</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>77.24602870709303</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>38.36786441186941</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>7.276848373211095</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>66.73277020259216</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>9.000252501566308</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.29586847696629</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>49.60187266209422</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713555</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713558</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>912919.4763713555</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>912919.4763713558</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912919.4763713557</v>
+        <v>912919.4763713556</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>912919.4763713556</v>
+        <v>912919.4763713557</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682737</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682751</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682736</v>
+        <v>5677.536566682753</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682751</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369598.2665758104</v>
+        <v>-369598.2665758102</v>
       </c>
       <c r="C6" t="n">
-        <v>220369.6126387345</v>
+        <v>220369.6126387344</v>
       </c>
       <c r="D6" t="n">
-        <v>64565.80654493923</v>
+        <v>64565.80654493911</v>
       </c>
       <c r="E6" t="n">
-        <v>-373386.1329651425</v>
+        <v>-373420.8708905781</v>
       </c>
       <c r="F6" t="n">
-        <v>397666.558415664</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="G6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902282</v>
       </c>
       <c r="H6" t="n">
-        <v>397666.558415664</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="I6" t="n">
-        <v>397666.5584156637</v>
+        <v>397631.8204902282</v>
       </c>
       <c r="J6" t="n">
-        <v>221243.3392230712</v>
+        <v>221208.6012976353</v>
       </c>
       <c r="K6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="L6" t="n">
-        <v>397666.558415664</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="M6" t="n">
-        <v>273458.0477076054</v>
+        <v>273423.3097821697</v>
       </c>
       <c r="N6" t="n">
-        <v>397666.5584156637</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="O6" t="n">
-        <v>397666.5584156638</v>
+        <v>397631.8204902281</v>
       </c>
       <c r="P6" t="n">
-        <v>397666.5584156642</v>
+        <v>397631.8204902281</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>397.9834511813472</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>96.68415872776023</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1051426060687</v>
+        <v>109.3628111481739</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>39.03327921531286</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>117.1054675032646</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.0415395682877</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>57.16698405290092</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>43.60808604372448</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547056</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954396</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,16 +35261,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>431.4618043636338</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>394.9738807864583</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748315</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121063</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>311.9917356041954</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
